--- a/semantic_validity_sample/Anon2Evaluationord.xlsx
+++ b/semantic_validity_sample/Anon2Evaluationord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB5229D-3B6E-4BDB-802A-C1CEAE8A69B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFD675-B15B-41C4-8044-8D6EEFA50870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="5" r:id="rId1"/>
@@ -6442,7 +6442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>778</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>784</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>787</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>811</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>800</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>891</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>870</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>775</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>918</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>823</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>933</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>790</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>879</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>766</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>736</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>675</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>707</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>840</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>885</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>667</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>828</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>643</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>846</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>834</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>834</v>
       </c>
@@ -8366,7 +8366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22EDDE6-CF7C-4533-BE59-BE9A3E088D43}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -13930,7 +13930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA260DD-3726-48EA-B38A-FD0D9A062B1B}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14278,7 +14280,7 @@
         <v>1773</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -14292,10 +14294,7 @@
         <v>1783</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -14309,7 +14308,7 @@
         <v>1773</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -14323,10 +14322,7 @@
         <v>1783</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -14340,7 +14336,7 @@
         <v>1773</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -14354,10 +14350,7 @@
         <v>1783</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -14677,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14693,6 +14686,9 @@
       <c r="D46">
         <v>0</v>
       </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -14756,7 +14752,7 @@
         <v>1783</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -14790,7 +14786,7 @@
         <v>1783</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -15178,10 +15174,7 @@
         <v>1783</v>
       </c>
       <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -15195,10 +15188,7 @@
         <v>1783</v>
       </c>
       <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -15611,7 +15601,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D102">
         <f>(SUM(D2:D101))/100</f>
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/semantic_validity_sample/Anon2Evaluationord.xlsx
+++ b/semantic_validity_sample/Anon2Evaluationord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFD675-B15B-41C4-8044-8D6EEFA50870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530808C-4E53-4EB7-8789-616B5E33D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="5" r:id="rId1"/>
@@ -12474,7 +12474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567346A-C3EB-4774-9FE6-A58DB51F58C6}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13800,7 +13802,7 @@
         <v>1753</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -13814,7 +13816,7 @@
         <v>1727</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -13828,7 +13830,7 @@
         <v>1719</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -13893,7 +13895,7 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>(SUM(C2:C101))/100</f>
-        <v>0.94499999999999995</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13930,7 +13932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA260DD-3726-48EA-B38A-FD0D9A062B1B}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/semantic_validity_sample/Anon2Evaluationord.xlsx
+++ b/semantic_validity_sample/Anon2Evaluationord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530808C-4E53-4EB7-8789-616B5E33D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196FB35F-3037-450B-8130-ADBF21A40DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6065,7 +6065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6075,6 +6075,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -12472,10 +12473,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567346A-C3EB-4774-9FE6-A58DB51F58C6}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12814,7 +12815,7 @@
         <v>1729</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -12870,7 +12871,7 @@
         <v>1749</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -13122,7 +13123,7 @@
         <v>1625</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -13283,14 +13284,14 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>1637</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -13409,14 +13410,17 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>1654</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -13895,8 +13899,11 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>(SUM(C2:C101))/100</f>
-        <v>0.88500000000000001</v>
-      </c>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13922,9 +13929,13 @@
     <hyperlink ref="A88" r:id="rId20" xr:uid="{7201CD09-970D-4111-A170-43E766F39B7F}"/>
     <hyperlink ref="A22" r:id="rId21" xr:uid="{99EC6F48-2529-4D23-B52C-6F6004336301}"/>
     <hyperlink ref="A98" r:id="rId22" xr:uid="{69107B18-37EB-4128-996B-0B9B7787456C}"/>
+    <hyperlink ref="B58" r:id="rId23" xr:uid="{585EE7BC-85B3-45A8-80D5-D6DB848474A2}"/>
+    <hyperlink ref="A58" r:id="rId24" xr:uid="{FFB7959D-2BDF-404B-A428-DDFA006E6000}"/>
+    <hyperlink ref="A67" r:id="rId25" xr:uid="{8458568C-312B-4A55-9180-9FBD6282783F}"/>
+    <hyperlink ref="B67" r:id="rId26" xr:uid="{6E249720-B062-49DD-964B-339CC2E1FA4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/semantic_validity_sample/Anon2Evaluationord.xlsx
+++ b/semantic_validity_sample/Anon2Evaluationord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\semantic_validity_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196FB35F-3037-450B-8130-ADBF21A40DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBE3A2B-23D9-4F6D-8C20-5349F52B72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="semantic_validity_arco" sheetId="5" r:id="rId1"/>
@@ -6359,7 +6359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC86175C-EBE6-4639-9234-F71528811B1D}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6497,7 +6499,7 @@
         <v>728</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -7615,10 +7617,7 @@
         <v>728</v>
       </c>
       <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -8160,10 +8159,7 @@
         <v>728</v>
       </c>
       <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -8220,10 +8216,7 @@
         <v>728</v>
       </c>
       <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -8325,7 +8318,7 @@
       <c r="D102" s="1"/>
       <c r="E102">
         <f>(SUM(E2:E101))/100</f>
-        <v>0.81</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8367,7 +8360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22EDDE6-CF7C-4533-BE59-BE9A3E088D43}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -9819,7 +9812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1415</v>
       </c>
@@ -10418,7 +10411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD747725-7CCF-4771-A636-3202A5D0E6A6}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
@@ -12475,7 +12468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567346A-C3EB-4774-9FE6-A58DB51F58C6}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -13943,7 +13936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA260DD-3726-48EA-B38A-FD0D9A062B1B}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -15642,8 +15635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16270,9 +16263,6 @@
       </c>
       <c r="C49">
         <v>0</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -16985,8 +16975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0035F71-87AE-49D5-A55F-A17D777FA6DC}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18337,7 +18327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8694F-4B4B-429E-89D4-E3E3BFF04FDB}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19266,7 +19256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>617</v>
       </c>
@@ -19294,7 +19284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>618</v>
       </c>
@@ -19308,7 +19298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>619</v>
       </c>
@@ -19322,7 +19312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>620</v>
       </c>
@@ -19336,7 +19326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>609</v>
       </c>
@@ -19350,7 +19340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>621</v>
       </c>
@@ -19364,7 +19354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>622</v>
       </c>
@@ -19420,7 +19410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>623</v>
       </c>
@@ -19434,7 +19424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>624</v>
       </c>
@@ -19462,7 +19452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>625</v>
       </c>
@@ -19476,7 +19466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>626</v>
       </c>
@@ -19490,7 +19480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>627</v>
       </c>
@@ -19504,7 +19494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>569</v>
       </c>
@@ -19518,7 +19508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>628</v>
       </c>
@@ -19630,7 +19620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>632</v>
       </c>
@@ -19644,7 +19634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>633</v>
       </c>
@@ -19658,7 +19648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>611</v>
       </c>
@@ -19808,7 +19798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1C5C93-8340-496E-939D-204816924469}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
